--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1898.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1898.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867AA4C9-B32A-452A-8E3B-2713D8A640D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A3CCDE-C380-47EC-9447-42E40623726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -202,12 +207,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -215,6 +214,12 @@
   </si>
   <si>
     <t>стр. 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -224,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,11 +621,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -633,18 +638,18 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B55"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -666,13 +671,13 @@
         <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>55</v>
@@ -682,7 +687,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +728,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -764,7 +769,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -805,7 +810,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -846,7 +851,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -887,7 +892,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -928,7 +933,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -969,7 +974,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1014,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1054,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +1094,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1134,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1169,7 +1174,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1214,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1249,7 +1254,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1294,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1334,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1374,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1409,7 +1414,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1449,7 +1454,7 @@
       <c r="U20" s="6"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1494,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1534,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1569,7 +1574,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1614,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1649,7 +1654,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1689,7 +1694,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1729,7 +1734,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1774,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1814,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1854,7 @@
       <c r="U30" s="6"/>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +1894,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1929,7 +1934,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="8"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1969,7 +1974,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="8"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2009,7 +2014,7 @@
       <c r="U34" s="6"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2049,7 +2054,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="8"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2089,7 +2094,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2129,7 +2134,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="8"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2169,7 +2174,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2209,7 +2214,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="8"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2249,7 +2254,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="8"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2289,7 +2294,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="8"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2329,7 +2334,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="8"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2369,7 +2374,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="8"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2409,7 +2414,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="8"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2449,7 +2454,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="8"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2489,7 +2494,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="8"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2529,7 +2534,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="8"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2569,7 +2574,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="8"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2609,7 +2614,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="8"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2649,7 +2654,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="8"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2689,7 +2694,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="8"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2729,14 +2734,14 @@
       <c r="U52" s="6"/>
       <c r="V52" s="8"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4"/>
       <c r="H54" s="4">
@@ -2764,7 +2769,7 @@
         <v>3156303</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4"/>
       <c r="H55" s="4">
         <f>H52-H54</f>
